--- a/data/financial_statements/sofp/EXR.xlsx
+++ b/data/financial_statements/sofp/EXR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -101,9 +218,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -156,12 +270,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -466,144 +577,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>94354000</v>
+        <v>94000000</v>
       </c>
       <c r="C2">
-        <v>70166000</v>
+        <v>70000000</v>
       </c>
       <c r="D2">
-        <v>72666000</v>
+        <v>73000000</v>
       </c>
       <c r="E2">
-        <v>76194000</v>
+        <v>76000000</v>
       </c>
       <c r="F2">
-        <v>81282000</v>
+        <v>81000000</v>
       </c>
       <c r="G2">
         <v>59749000</v>
@@ -709,8 +820,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V3">
         <v>4618000</v>
@@ -771,8 +882,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>94354000</v>
@@ -893,23 +1004,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>9877080000</v>
+        <v>270000000</v>
       </c>
       <c r="C5">
-        <v>9135464000</v>
+        <v>267000000</v>
       </c>
       <c r="D5">
-        <v>8940724000</v>
+        <v>237000000</v>
       </c>
       <c r="E5">
-        <v>8834649000</v>
+        <v>228000000</v>
       </c>
       <c r="F5">
-        <v>8272671000</v>
+        <v>229000000</v>
       </c>
       <c r="G5">
         <v>8113074000</v>
@@ -1015,23 +1126,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1642227000</v>
+        <v>61000000</v>
       </c>
       <c r="C6">
-        <v>1601092000</v>
+        <v>36000000</v>
       </c>
       <c r="D6">
-        <v>1341399000</v>
+        <v>158000000</v>
       </c>
       <c r="E6">
-        <v>1335685000</v>
+        <v>159000000</v>
       </c>
       <c r="F6">
-        <v>1125222000</v>
+        <v>145000000</v>
       </c>
       <c r="G6">
         <v>1056340000</v>
@@ -1137,8 +1248,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>11519310000</v>
@@ -1259,23 +1370,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>11840640000</v>
+        <v>11841000000</v>
       </c>
       <c r="C8">
-        <v>11038770000</v>
+        <v>11039000000</v>
       </c>
       <c r="D8">
-        <v>10591750000</v>
+        <v>10592000000</v>
       </c>
       <c r="E8">
-        <v>10474480000</v>
+        <v>10474000000</v>
       </c>
       <c r="F8">
-        <v>9708359000</v>
+        <v>9708000000</v>
       </c>
       <c r="G8">
         <v>9463092000</v>
@@ -1381,8 +1492,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>191183000</v>
@@ -1503,8 +1614,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D10">
         <v>232000000</v>
@@ -1523,8 +1634,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>191183000</v>
@@ -1645,23 +1756,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>6993534000</v>
+        <v>7227000000</v>
       </c>
       <c r="C12">
-        <v>6387640000</v>
+        <v>6626000000</v>
       </c>
       <c r="D12">
-        <v>6012666000</v>
+        <v>6023000000</v>
       </c>
       <c r="E12">
-        <v>5957747000</v>
+        <v>6000000000</v>
       </c>
       <c r="F12">
-        <v>5583828000</v>
+        <v>5818000000</v>
       </c>
       <c r="G12">
         <v>5370882000</v>
@@ -1767,8 +1878,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E13">
         <v>-62000000</v>
@@ -1778,31 +1889,31 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AL14">
         <v>33713000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>352798000</v>
+        <v>544000000</v>
       </c>
       <c r="C15">
-        <v>347577000</v>
+        <v>519000000</v>
       </c>
       <c r="D15">
-        <v>321222000</v>
+        <v>458000000</v>
       </c>
       <c r="E15">
-        <v>355113000</v>
+        <v>351000000</v>
       </c>
       <c r="F15">
-        <v>342864000</v>
+        <v>508000000</v>
       </c>
       <c r="G15">
         <v>342753000</v>
@@ -1908,8 +2019,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>7346332000</v>
@@ -2030,23 +2141,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>7771347000</v>
+        <v>7771000000</v>
       </c>
       <c r="C17">
-        <v>7145527000</v>
+        <v>7146000000</v>
       </c>
       <c r="D17">
-        <v>6713586000</v>
+        <v>6714000000</v>
       </c>
       <c r="E17">
-        <v>6688501000</v>
+        <v>6689000000</v>
       </c>
       <c r="F17">
-        <v>6325484000</v>
+        <v>6325000000</v>
       </c>
       <c r="G17">
         <v>6102137000</v>
@@ -2152,8 +2263,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>3339961000</v>
@@ -2274,23 +2385,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1339000</v>
+        <v>1000000</v>
       </c>
       <c r="C19">
-        <v>1339000</v>
+        <v>1000000</v>
       </c>
       <c r="D19">
-        <v>1343000</v>
+        <v>1000000</v>
       </c>
       <c r="E19">
-        <v>1339000</v>
+        <v>1000000</v>
       </c>
       <c r="F19">
-        <v>1338000</v>
+        <v>1000000</v>
       </c>
       <c r="G19">
         <v>1337000</v>
@@ -2396,23 +2507,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-139250000</v>
+        <v>-139000000</v>
       </c>
       <c r="C20">
-        <v>-159091000</v>
+        <v>-159000000</v>
       </c>
       <c r="D20">
-        <v>-127193000</v>
+        <v>-127000000</v>
       </c>
       <c r="E20">
-        <v>-128245000</v>
+        <v>-128000000</v>
       </c>
       <c r="F20">
-        <v>-229269000</v>
+        <v>-229000000</v>
       </c>
       <c r="G20">
         <v>-250271000</v>
@@ -2518,23 +2629,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>4069298000</v>
+        <v>3251000000</v>
       </c>
       <c r="C21">
-        <v>3893240000</v>
+        <v>-134000000</v>
       </c>
       <c r="D21">
-        <v>3878164000</v>
+        <v>3210000000</v>
       </c>
       <c r="E21">
-        <v>3785976000</v>
+        <v>3116000000</v>
       </c>
       <c r="F21">
-        <v>3382875000</v>
+        <v>2992000000</v>
       </c>
       <c r="G21">
         <v>3360955000</v>
@@ -2640,23 +2751,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>4069298000</v>
+        <v>3251000000</v>
       </c>
       <c r="C22">
-        <v>3893240000</v>
+        <v>-134000000</v>
       </c>
       <c r="D22">
-        <v>3878164000</v>
+        <v>3210000000</v>
       </c>
       <c r="E22">
-        <v>3785976000</v>
+        <v>3116000000</v>
       </c>
       <c r="F22">
-        <v>3382875000</v>
+        <v>2992000000</v>
       </c>
       <c r="G22">
         <v>3360955000</v>
@@ -2762,8 +2873,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>11840640000</v>
@@ -2884,8 +2995,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>133918000</v>
@@ -3006,8 +3117,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>4069297000</v>
@@ -3128,23 +3239,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>6899180000</v>
+        <v>7133000000</v>
       </c>
       <c r="C26">
-        <v>6317474000</v>
+        <v>6556000000</v>
       </c>
       <c r="D26">
-        <v>6172000000</v>
+        <v>6182000000</v>
       </c>
       <c r="E26">
-        <v>6197553000</v>
+        <v>6240000000</v>
       </c>
       <c r="F26">
-        <v>5502546000</v>
+        <v>5737000000</v>
       </c>
       <c r="G26">
         <v>5311133000</v>
@@ -3250,23 +3361,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>6993534000</v>
+        <v>7227000000</v>
       </c>
       <c r="C27">
-        <v>6387640000</v>
+        <v>6626000000</v>
       </c>
       <c r="D27">
-        <v>6244666000</v>
+        <v>6255000000</v>
       </c>
       <c r="E27">
-        <v>6273747000</v>
+        <v>6316000000</v>
       </c>
       <c r="F27">
-        <v>5583828000</v>
+        <v>5818000000</v>
       </c>
       <c r="G27">
         <v>5370882000</v>
